--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/3 CONCILIACIONES BANCARIAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/3 CONCILIACIONES BANCARIAS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033E745-2CD9-4B2C-A5D6-5BBBDE3B2C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="8550"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Otros (+ -)</t>
   </si>
@@ -35,12 +36,6 @@
     <t>Al 31 de Diciembre de 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                               Auditoria de Estados Financieros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              Del 01 de enero al 31 de Diciembrede 2024</t>
-  </si>
-  <si>
     <t>Prueba de Conciliaciones Bancarias</t>
   </si>
   <si>
@@ -156,18 +151,30 @@
   </si>
   <si>
     <t>Observaciones:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditoria de Estados Financieros </t>
+  </si>
+  <si>
+    <t>A-2</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +324,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -396,7 +411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -514,7 +529,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,23 +599,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Millares 2" xfId="2"/>
+    <cellStyle name="Millares 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,144 +645,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742950" y="219075"/>
-          <a:ext cx="1457325" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100"/>
-            <a:t>LOGO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="es-GT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12525375" y="171450"/>
-          <a:ext cx="971550" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-GT" sz="1500" b="1">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A-2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -770,7 +657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Triángulo isósceles 3"/>
+        <xdr:cNvPr id="4" name="Triángulo isósceles 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -832,7 +725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+        <xdr:cNvPr id="5" name="Rectángulo redondeado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -892,7 +791,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Triángulo isósceles 6"/>
+        <xdr:cNvPr id="7" name="Triángulo isósceles 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -954,7 +859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectángulo redondeado 7"/>
+        <xdr:cNvPr id="8" name="Rectángulo redondeado 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1014,7 +925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Triángulo isósceles 8"/>
+        <xdr:cNvPr id="9" name="Triángulo isósceles 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1326,11 +1243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1278,9 @@
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
+      <c r="B2" s="75" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -1374,8 +1293,8 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="18"/>
+    <row r="3" spans="2:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="75"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -1383,13 +1302,15 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="J3" s="74" t="s">
+        <v>43</v>
+      </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -1398,14 +1319,14 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1414,7 +1335,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18"/>
@@ -1430,7 +1351,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18"/>
@@ -1446,35 +1367,34 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
+      <c r="C8" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="27"/>
+      <c r="C9" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -1486,11 +1406,11 @@
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="27"/>
+      <c r="C10" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -1501,28 +1421,26 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
+      <c r="C11" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+      <c r="C12" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
@@ -1533,51 +1451,51 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="2:13" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="E14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>14</v>
-      </c>
       <c r="G14" s="30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -1674,11 +1592,11 @@
       <c r="F21" s="45"/>
       <c r="G21" s="46"/>
       <c r="H21" s="47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -1686,15 +1604,15 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="45"/>
@@ -1708,12 +1626,12 @@
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="45"/>
@@ -1726,15 +1644,15 @@
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
       <c r="E24" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" s="68"/>
       <c r="G24" s="45"/>
@@ -1747,15 +1665,15 @@
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="51"/>
       <c r="E25" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" s="68"/>
       <c r="G25" s="45"/>
@@ -1768,15 +1686,15 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="51"/>
       <c r="E26" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="45"/>
@@ -1793,7 +1711,7 @@
       <c r="C27" s="57"/>
       <c r="D27" s="51"/>
       <c r="E27" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="50"/>
@@ -1810,7 +1728,7 @@
       <c r="C28" s="57"/>
       <c r="D28" s="51"/>
       <c r="E28" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" s="56"/>
       <c r="G28" s="59"/>
@@ -1826,7 +1744,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="56"/>
       <c r="G29" s="50"/>
@@ -1842,7 +1760,7 @@
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="50"/>
@@ -1858,7 +1776,7 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="50"/>
@@ -1871,7 +1789,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1915,7 +1833,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="50"/>
@@ -1931,7 +1849,7 @@
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
@@ -1947,7 +1865,7 @@
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
@@ -2019,14 +1937,14 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
@@ -2038,7 +1956,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -2046,7 +1964,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="66"/>
       <c r="H43" s="67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -2099,10 +2017,13 @@
       <c r="H59" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/3 CONCILIACIONES BANCARIAS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/3 CONCILIACIONES BANCARIAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033E745-2CD9-4B2C-A5D6-5BBBDE3B2C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6EC1FB-BEE2-42FA-A9D8-805B0D39FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Otros (+ -)</t>
   </si>
   <si>
-    <t>Entidad  XXXXXXXX</t>
-  </si>
-  <si>
     <t>Al 31 de Diciembre de 2024</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -599,15 +599,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1302,8 +1302,8 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="74" t="s">
-        <v>43</v>
+      <c r="J3" s="73" t="s">
+        <v>42</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -1319,7 +1319,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18"/>
@@ -1335,7 +1335,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18"/>
@@ -1351,7 +1351,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18"/>
@@ -1367,7 +1367,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="18"/>
@@ -1375,15 +1375,15 @@
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="76" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="76"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -1391,7 +1391,7 @@
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="76"/>
       <c r="E9" s="76"/>
@@ -1407,7 +1407,7 @@
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="76"/>
       <c r="E10" s="76"/>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="77"/>
       <c r="E11" s="77"/>
@@ -1437,65 +1437,65 @@
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="78"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="B13" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="2:13" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="32" t="s">
         <v>13</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>14</v>
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
@@ -1592,11 +1592,11 @@
       <c r="F21" s="45"/>
       <c r="G21" s="46"/>
       <c r="H21" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -1604,15 +1604,15 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="45"/>
@@ -1626,12 +1626,12 @@
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="45"/>
@@ -1644,15 +1644,15 @@
     </row>
     <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>21</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>22</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
       <c r="E24" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="68"/>
       <c r="G24" s="45"/>
@@ -1665,15 +1665,15 @@
     </row>
     <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="49" t="s">
         <v>23</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>24</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="51"/>
       <c r="E25" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="68"/>
       <c r="G25" s="45"/>
@@ -1686,15 +1686,15 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="51"/>
       <c r="E26" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="45"/>
@@ -1711,7 +1711,7 @@
       <c r="C27" s="57"/>
       <c r="D27" s="51"/>
       <c r="E27" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="69"/>
       <c r="G27" s="50"/>
@@ -1728,7 +1728,7 @@
       <c r="C28" s="57"/>
       <c r="D28" s="51"/>
       <c r="E28" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="56"/>
       <c r="G28" s="59"/>
@@ -1744,7 +1744,7 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="56"/>
       <c r="G29" s="50"/>
@@ -1760,7 +1760,7 @@
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="50"/>
@@ -1776,7 +1776,7 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="56"/>
       <c r="G31" s="50"/>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="49"/>
       <c r="D35" s="50"/>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="36" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="65"/>
       <c r="D36" s="65"/>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
@@ -1937,14 +1937,14 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -1964,7 +1964,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="66"/>
       <c r="H43" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -2018,13 +2018,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B13:J13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:J13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
